--- a/Source strength check.xlsx
+++ b/Source strength check.xlsx
@@ -119,16 +119,16 @@
     <t>Specific Date &amp; Time</t>
   </si>
   <si>
-    <t>Manufacurer's Calibration:455.7GBq @20:58 CET on 21 Feb 2018</t>
-  </si>
-  <si>
-    <t>Flexisource No.:  NLF 01 D85E-2431</t>
-  </si>
-  <si>
-    <t>CCSEO Batch Number: 39</t>
-  </si>
-  <si>
-    <t>Date of source installation @ CCSEO: Mar 12 2018</t>
+    <t>Manufacurer's Calibration:383.8GBq @01:45 CET on 27 Nov 2018</t>
+  </si>
+  <si>
+    <t>Flexisource No.:  NLF 01 D85E-3112</t>
+  </si>
+  <si>
+    <t>CCSEO Batch Number: 42</t>
+  </si>
+  <si>
+    <t>Date of source installation @ CCSEO: Dec 10  2018</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
-        <v>43152.873611111114</v>
+        <v>43431.072916666664</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>5</v>
@@ -1120,15 +1120,15 @@
         <v>8</v>
       </c>
       <c r="E8" s="16">
-        <v>43171.5</v>
+        <v>43444.5</v>
       </c>
       <c r="F8" s="20">
         <f>EXP(-0.693*(E8-$A$9)/73.831)</f>
-        <v>0.83762944110436621</v>
+        <v>0.87952154082148581</v>
       </c>
       <c r="G8" s="22">
         <f>$A$10*F8*110</f>
-        <v>41232.309238362432</v>
+        <v>37131.640410401495</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>7</v>
@@ -1137,7 +1137,7 @@
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <f>A8-6/24</f>
-        <v>43152.623611111114</v>
+        <v>43430.822916666664</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1148,15 +1148,15 @@
       </c>
       <c r="E9" s="17">
         <f>$E$8+119</f>
-        <v>43290.5</v>
+        <v>43563.5</v>
       </c>
       <c r="F9" s="20">
         <f>EXP(-0.693*(E9-$A$9)/73.831)</f>
-        <v>0.27413096640721252</v>
+        <v>0.28784099284221987</v>
       </c>
       <c r="G9" s="22">
         <f t="shared" ref="G9:G18" si="0">$A$10*F9*110</f>
-        <v>13494.096821395036</v>
+        <v>12152.071035812838</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>7</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
-        <v>447.5</v>
+        <v>383.8</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>4</v>
@@ -1175,15 +1175,15 @@
       </c>
       <c r="E10" s="17">
         <f>$E$8+VALUE(RIGHT(D10:D10,LEN(D10)-SEARCH(" ",D10)))-1</f>
-        <v>43180.5</v>
+        <v>43453.5</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" ref="F10:F18" si="1">EXP(-0.693*(E10-$A$9)/73.831)</f>
-        <v>0.76977564169985579</v>
+        <v>0.8082741905323606</v>
       </c>
       <c r="G10" s="22">
         <f t="shared" si="0"/>
-        <v>37892.205962675398</v>
+        <v>34123.719775895202</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>7</v>
@@ -1195,15 +1195,15 @@
       </c>
       <c r="E11" s="17">
         <f t="shared" ref="E11:E18" si="2">$E$8+VALUE(RIGHT(D11:D11,LEN(D11)-SEARCH(" ",D11)))-1</f>
-        <v>43190.5</v>
+        <v>43463.5</v>
       </c>
       <c r="F11" s="20">
         <f t="shared" si="1"/>
-        <v>0.70080949371770929</v>
+        <v>0.73585886012347812</v>
       </c>
       <c r="G11" s="22">
         <f t="shared" si="0"/>
-        <v>34497.34732825424</v>
+        <v>31066.489356692997</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>7</v>
@@ -1215,15 +1215,15 @@
       </c>
       <c r="E12" s="17">
         <f t="shared" si="2"/>
-        <v>43200.5</v>
+        <v>43473.5</v>
       </c>
       <c r="F12" s="20">
         <f t="shared" si="1"/>
-        <v>0.63802219748123778</v>
+        <v>0.66993140244349447</v>
       </c>
       <c r="G12" s="22">
         <f t="shared" si="0"/>
-        <v>31406.642671013931</v>
+        <v>28283.163948359452</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>7</v>
@@ -1235,15 +1235,15 @@
       </c>
       <c r="E13" s="17">
         <f t="shared" si="2"/>
-        <v>43211.5</v>
+        <v>43484.5</v>
       </c>
       <c r="F13" s="20">
         <f t="shared" si="1"/>
-        <v>0.57543355329629997</v>
+        <v>0.60421253193807567</v>
       </c>
       <c r="G13" s="22">
         <f t="shared" si="0"/>
-        <v>28325.716661010367</v>
+        <v>25508.644673361679</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>7</v>
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E14" s="17">
         <f t="shared" si="2"/>
-        <v>43230.5</v>
+        <v>43503.5</v>
       </c>
       <c r="F14" s="20">
         <f t="shared" si="1"/>
-        <v>0.48144116880857851</v>
+        <v>0.50551933567084217</v>
       </c>
       <c r="G14" s="22">
         <f t="shared" si="0"/>
-        <v>23698.941534602276</v>
+        <v>21342.015313351614</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>7</v>
@@ -1275,15 +1275,15 @@
       </c>
       <c r="E15" s="17">
         <f t="shared" si="2"/>
-        <v>43241.5</v>
+        <v>43514.5</v>
       </c>
       <c r="F15" s="20">
         <f t="shared" si="1"/>
-        <v>0.43421279630132448</v>
+        <v>0.45592894531480926</v>
       </c>
       <c r="G15" s="22">
         <f t="shared" si="0"/>
-        <v>21374.124897932699</v>
+        <v>19248.40821330062</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>7</v>
@@ -1295,15 +1295,15 @@
       </c>
       <c r="E16" s="17">
         <f t="shared" si="2"/>
-        <v>43260.5</v>
+        <v>43533.5</v>
       </c>
       <c r="F16" s="20">
         <f t="shared" si="1"/>
-        <v>0.36328767233930953</v>
+        <v>0.3814566652719999</v>
       </c>
       <c r="G16" s="22">
         <f t="shared" si="0"/>
-        <v>17882.83567090251</v>
+        <v>16104.337494453292</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>7</v>
@@ -1315,15 +1315,15 @@
       </c>
       <c r="E17" s="17">
         <f t="shared" si="2"/>
-        <v>43271.5</v>
+        <v>43544.5</v>
       </c>
       <c r="F17" s="20">
         <f t="shared" si="1"/>
-        <v>0.32764991090940582</v>
+        <v>0.34403656360636126</v>
       </c>
       <c r="G17" s="22">
         <f t="shared" si="0"/>
-        <v>16128.5668645155</v>
+        <v>14524.535642333361</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>7</v>
@@ -1335,15 +1335,15 @@
       </c>
       <c r="E18" s="18">
         <f t="shared" si="2"/>
-        <v>43281.5</v>
+        <v>43554.5</v>
       </c>
       <c r="F18" s="21">
         <f t="shared" si="1"/>
-        <v>0.29829492613460051</v>
+        <v>0.31321345714309273</v>
       </c>
       <c r="G18" s="23">
         <f t="shared" si="0"/>
-        <v>14683.567738975711</v>
+        <v>13223.245733667089</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>7</v>
@@ -1389,20 +1389,20 @@
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>'Reference Sheet Check'!A2</f>
-        <v>Manufacurer's Calibration:455.7GBq @20:58 CET on 21 Feb 2018</v>
+        <v>Manufacurer's Calibration:383.8GBq @01:45 CET on 27 Nov 2018</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="str">
         <f>'Reference Sheet Check'!A3</f>
-        <v>Flexisource No.:  NLF 01 D85E-2431</v>
+        <v>Flexisource No.:  NLF 01 D85E-3112</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>'Reference Sheet Check'!A4</f>
-        <v>CCSEO Batch Number: 39</v>
+        <v>CCSEO Batch Number: 42</v>
       </c>
       <c r="B4" s="8"/>
       <c r="F4" s="8"/>
@@ -1416,7 +1416,7 @@
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>'Reference Sheet Check'!A5</f>
-        <v>Date of source installation @ CCSEO: Mar 12 2018</v>
+        <v>Date of source installation @ CCSEO: Dec 10  2018</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1460,7 +1460,7 @@
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <f>'Reference Sheet Check'!A8</f>
-        <v>43152.873611111114</v>
+        <v>43431.072916666664</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>5</v>
@@ -1470,15 +1470,15 @@
         <v>21</v>
       </c>
       <c r="E8" s="14">
-        <v>43217.5</v>
+        <v>43466.5</v>
       </c>
       <c r="F8" s="2">
         <f>EXP(-0.693*(E8-$A$9)/73.831)</f>
-        <v>0.54392205510173619</v>
+        <v>0.71542690236181461</v>
       </c>
       <c r="G8" s="36">
         <f>$A$10*F8*110</f>
-        <v>26774.563162382961</v>
+        <v>30203.89296391109</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>7</v>
@@ -1487,7 +1487,7 @@
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <f>A8-6/24</f>
-        <v>43152.623611111114</v>
+        <v>43430.822916666664</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>6</v>
@@ -1498,15 +1498,15 @@
       </c>
       <c r="E9" s="13">
         <f ca="1">NOW()</f>
-        <v>43171.695841203706</v>
+        <v>43445.305874305559</v>
       </c>
       <c r="F9" s="2">
         <f ca="1">EXP(-0.693*(E9-$A$9)/73.831)</f>
-        <v>0.83609110446846768</v>
+        <v>0.87289378090627912</v>
       </c>
       <c r="G9" s="36">
         <f ca="1">$A$10*F9*110</f>
-        <v>41156.584617460321</v>
+        <v>36851.829642301294</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>7</v>
@@ -1515,7 +1515,7 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <f>'Reference Sheet Check'!A10</f>
-        <v>447.5</v>
+        <v>383.8</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>4</v>
@@ -1525,7 +1525,7 @@
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37">
         <f>A10*110</f>
-        <v>49225</v>
+        <v>42218</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>7</v>
